--- a/TestData/1960E.xlsx
+++ b/TestData/1960E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/git/APIAutomation/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D3523-7305-7248-A2C8-84111BD652A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD15E093-6EED-324B-8E40-CAC4219430A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -2578,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DE798A-686A-4149-8EBC-34859B729EB7}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -4715,7 +4715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002EC01-3CA7-5447-A00F-BC3DBE81A151}">
   <dimension ref="A1:CK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="BR22" sqref="BR22"/>
     </sheetView>
   </sheetViews>

--- a/TestData/1960E.xlsx
+++ b/TestData/1960E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tokyomanamela/git/APIAutomation/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD15E093-6EED-324B-8E40-CAC4219430A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8222D-4336-F047-AA34-FBC991042AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C803A493-06B4-7442-A1DD-EE01984397FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -2059,7 +2059,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2099,6 +2099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2262,6 +2268,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DE798A-686A-4149-8EBC-34859B729EB7}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -4715,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002EC01-3CA7-5447-A00F-BC3DBE81A151}">
   <dimension ref="A1:CK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="BR22" sqref="BR22"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4734,7 +4746,9 @@
     <col min="29" max="29" width="30.1640625" customWidth="1"/>
     <col min="30" max="32" width="24.6640625" customWidth="1"/>
     <col min="33" max="35" width="24" customWidth="1"/>
-    <col min="36" max="59" width="25.83203125" customWidth="1"/>
+    <col min="36" max="41" width="25.83203125" customWidth="1"/>
+    <col min="42" max="55" width="25.83203125" style="51" customWidth="1"/>
+    <col min="56" max="59" width="25.83203125" customWidth="1"/>
     <col min="60" max="60" width="26" customWidth="1"/>
     <col min="61" max="61" width="25.1640625" customWidth="1"/>
     <col min="62" max="62" width="27" customWidth="1"/>
@@ -4887,46 +4901,46 @@
       <c r="AO1" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="46" t="s">
         <v>490</v>
       </c>
       <c r="BD1" s="9" t="s">
@@ -5156,46 +5170,46 @@
       <c r="AO2" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="46" t="s">
         <v>504</v>
       </c>
       <c r="BD2" s="9" t="s">
@@ -5425,46 +5439,46 @@
       <c r="AO3" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AP3" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AX3" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AY3" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="AZ3" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BA3" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="46" t="s">
         <v>504</v>
       </c>
       <c r="BD3" s="9" t="s">
@@ -5694,46 +5708,46 @@
       <c r="AO4" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP4" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AR4" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AS4" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT4" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AU4" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AV4" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AW4" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AX4" s="31" t="s">
+      <c r="AX4" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AY4" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="AZ4" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BA4" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BB4" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BC4" s="46" t="s">
         <v>504</v>
       </c>
       <c r="BD4" s="9" t="s">
@@ -5963,46 +5977,46 @@
       <c r="AO5" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="AP5" s="38" t="s">
+      <c r="AP5" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AQ5" s="38" t="s">
+      <c r="AQ5" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AR5" s="38" t="s">
+      <c r="AR5" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="AS5" s="38" t="s">
+      <c r="AS5" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AT5" s="38" t="s">
+      <c r="AT5" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AU5" s="38" t="s">
+      <c r="AU5" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AV5" s="38" t="s">
+      <c r="AV5" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="AW5" s="38" t="s">
+      <c r="AW5" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AX5" s="38" t="s">
+      <c r="AX5" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AY5" s="38" t="s">
+      <c r="AY5" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="AZ5" s="38" t="s">
+      <c r="AZ5" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="BA5" s="38" t="s">
+      <c r="BA5" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="BB5" s="38" t="s">
+      <c r="BB5" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BC5" s="38" t="s">
+      <c r="BC5" s="46" t="s">
         <v>522</v>
       </c>
       <c r="BD5" s="38" t="s">
@@ -6232,46 +6246,46 @@
       <c r="AO6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AR6" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AT6" s="5" t="s">
+      <c r="AT6" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AU6" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AV6" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AW6" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AX6" s="5" t="s">
+      <c r="AX6" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="AY6" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="AZ6" s="5" t="s">
+      <c r="AZ6" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="BA6" s="5" t="s">
+      <c r="BA6" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="BB6" s="5" t="s">
+      <c r="BB6" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BC6" s="5" t="s">
+      <c r="BC6" s="46" t="s">
         <v>522</v>
       </c>
       <c r="BD6" s="5" t="s">
@@ -6501,46 +6515,46 @@
       <c r="AO7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AP7" s="5" t="s">
+      <c r="AP7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AQ7" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AR7" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AT7" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AU7" s="5" t="s">
+      <c r="AU7" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AV7" s="5" t="s">
+      <c r="AV7" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="AW7" s="5" t="s">
+      <c r="AW7" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AX7" s="5" t="s">
+      <c r="AX7" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AY7" s="5" t="s">
+      <c r="AY7" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="AZ7" s="5" t="s">
+      <c r="AZ7" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="BA7" s="5" t="s">
+      <c r="BA7" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="BB7" s="5" t="s">
+      <c r="BB7" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BC7" s="5" t="s">
+      <c r="BC7" s="46" t="s">
         <v>522</v>
       </c>
       <c r="BD7" s="5" t="s">
@@ -6770,46 +6784,46 @@
       <c r="AO8" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="AP8" s="38" t="s">
+      <c r="AP8" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="AQ8" s="38" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="AR8" s="38" t="s">
+      <c r="AR8" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="AS8" s="38" t="s">
+      <c r="AS8" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AT8" s="38" t="s">
+      <c r="AT8" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AU8" s="38" t="s">
+      <c r="AU8" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="AV8" s="38" t="s">
+      <c r="AV8" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="AW8" s="38" t="s">
+      <c r="AW8" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AX8" s="38" t="s">
+      <c r="AX8" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AY8" s="38" t="s">
+      <c r="AY8" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="AZ8" s="38" t="s">
+      <c r="AZ8" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BA8" s="38" t="s">
+      <c r="BA8" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="BB8" s="38" t="s">
+      <c r="BB8" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="BC8" s="38" t="s">
+      <c r="BC8" s="46" t="s">
         <v>537</v>
       </c>
       <c r="BD8" s="38" t="s">
@@ -7039,46 +7053,46 @@
       <c r="AO9" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="AP9" s="38" t="s">
+      <c r="AP9" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="AQ9" s="38" t="s">
+      <c r="AQ9" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="AR9" s="38" t="s">
+      <c r="AR9" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="AS9" s="38" t="s">
+      <c r="AS9" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AT9" s="38" t="s">
+      <c r="AT9" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AU9" s="38" t="s">
+      <c r="AU9" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="AV9" s="43" t="s">
+      <c r="AV9" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="AW9" s="38" t="s">
+      <c r="AW9" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AX9" s="38" t="s">
+      <c r="AX9" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AY9" s="38" t="s">
+      <c r="AY9" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="AZ9" s="38" t="s">
+      <c r="AZ9" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BA9" s="38" t="s">
+      <c r="BA9" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="BB9" s="38" t="s">
+      <c r="BB9" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="BC9" s="38" t="s">
+      <c r="BC9" s="46" t="s">
         <v>537</v>
       </c>
       <c r="BD9" s="38" t="s">
@@ -7308,46 +7322,46 @@
       <c r="AO10" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="AP10" s="38" t="s">
+      <c r="AP10" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="AQ10" s="38" t="s">
+      <c r="AQ10" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="AR10" s="38" t="s">
+      <c r="AR10" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="AS10" s="38" t="s">
+      <c r="AS10" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AT10" s="38" t="s">
+      <c r="AT10" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="AU10" s="38" t="s">
+      <c r="AU10" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="AV10" s="38" t="s">
+      <c r="AV10" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="AW10" s="38" t="s">
+      <c r="AW10" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AX10" s="38" t="s">
+      <c r="AX10" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AY10" s="38" t="s">
+      <c r="AY10" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="AZ10" s="38" t="s">
+      <c r="AZ10" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="BA10" s="38" t="s">
+      <c r="BA10" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="BB10" s="38" t="s">
+      <c r="BB10" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="BC10" s="38" t="s">
+      <c r="BC10" s="46" t="s">
         <v>537</v>
       </c>
       <c r="BD10" s="38" t="s">
@@ -7577,46 +7591,46 @@
       <c r="AO11" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AP11" s="5" t="s">
+      <c r="AP11" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AQ11" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="AR11" s="5" t="s">
+      <c r="AR11" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AS11" s="5" t="s">
+      <c r="AS11" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AT11" s="5" t="s">
+      <c r="AT11" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AU11" s="5" t="s">
+      <c r="AU11" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AV11" s="5" t="s">
+      <c r="AV11" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AW11" s="5" t="s">
+      <c r="AW11" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="AX11" s="5" t="s">
+      <c r="AX11" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AY11" s="5" t="s">
+      <c r="AY11" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="AZ11" s="5" t="s">
+      <c r="AZ11" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="BA11" s="5" t="s">
+      <c r="BA11" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="BB11" s="5" t="s">
+      <c r="BB11" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="BC11" s="5" t="s">
+      <c r="BC11" s="46" t="s">
         <v>550</v>
       </c>
       <c r="BD11" s="5" t="s">
@@ -7846,46 +7860,46 @@
       <c r="AO12" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AP12" s="5" t="s">
+      <c r="AP12" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AQ12" s="5" t="s">
+      <c r="AQ12" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="AR12" s="5" t="s">
+      <c r="AR12" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AS12" s="32" t="s">
+      <c r="AS12" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="AT12" s="5" t="s">
+      <c r="AT12" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AU12" s="5" t="s">
+      <c r="AU12" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AV12" s="5" t="s">
+      <c r="AV12" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AW12" s="5" t="s">
+      <c r="AW12" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="AX12" s="5" t="s">
+      <c r="AX12" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AY12" s="5" t="s">
+      <c r="AY12" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="AZ12" s="5" t="s">
+      <c r="AZ12" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="BA12" s="5" t="s">
+      <c r="BA12" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="BB12" s="5" t="s">
+      <c r="BB12" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="BC12" s="5" t="s">
+      <c r="BC12" s="46" t="s">
         <v>550</v>
       </c>
       <c r="BD12" s="5" t="s">
@@ -8115,46 +8129,46 @@
       <c r="AO13" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AP13" s="5" t="s">
+      <c r="AP13" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AQ13" s="5" t="s">
+      <c r="AQ13" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="AR13" s="5" t="s">
+      <c r="AR13" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AS13" s="5" t="s">
+      <c r="AS13" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AT13" s="5" t="s">
+      <c r="AT13" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="AU13" s="5" t="s">
+      <c r="AU13" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AV13" s="5" t="s">
+      <c r="AV13" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AW13" s="5" t="s">
+      <c r="AW13" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="AX13" s="5" t="s">
+      <c r="AX13" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AY13" s="5" t="s">
+      <c r="AY13" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="AZ13" s="5" t="s">
+      <c r="AZ13" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="BA13" s="5" t="s">
+      <c r="BA13" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="BB13" s="5" t="s">
+      <c r="BB13" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="BC13" s="5" t="s">
+      <c r="BC13" s="46" t="s">
         <v>550</v>
       </c>
       <c r="BD13" s="5" t="s">
@@ -8384,46 +8398,46 @@
       <c r="AO14" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AP14" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AQ14" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AR14" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AS14" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AT14" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="AU14" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AV14" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW14" s="2" t="s">
+      <c r="AW14" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX14" s="2" t="s">
+      <c r="AX14" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY14" s="2" t="s">
+      <c r="AY14" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ14" s="2" t="s">
+      <c r="AZ14" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA14" s="2" t="s">
+      <c r="BA14" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB14" s="2" t="s">
+      <c r="BB14" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC14" s="2" t="s">
+      <c r="BC14" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD14" s="2" t="s">
@@ -8653,46 +8667,46 @@
       <c r="AO15" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AP15" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ15" s="2" t="s">
+      <c r="AQ15" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR15" s="2" t="s">
+      <c r="AR15" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AS15" s="2" t="s">
+      <c r="AS15" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT15" s="2" t="s">
+      <c r="AT15" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU15" s="2" t="s">
+      <c r="AU15" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV15" s="2" t="s">
+      <c r="AV15" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW15" s="2" t="s">
+      <c r="AW15" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX15" s="2" t="s">
+      <c r="AX15" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY15" s="2" t="s">
+      <c r="AY15" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ15" s="2" t="s">
+      <c r="AZ15" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA15" s="2" t="s">
+      <c r="BA15" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB15" s="2" t="s">
+      <c r="BB15" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC15" s="2" t="s">
+      <c r="BC15" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD15" s="2" t="s">
@@ -8922,46 +8936,46 @@
       <c r="AO16" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="AP16" s="38" t="s">
+      <c r="AP16" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ16" s="38" t="s">
+      <c r="AQ16" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR16" s="38" t="s">
+      <c r="AR16" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AS16" s="38" t="s">
+      <c r="AS16" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT16" s="38" t="s">
+      <c r="AT16" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU16" s="38" t="s">
+      <c r="AU16" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV16" s="38" t="s">
+      <c r="AV16" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW16" s="38" t="s">
+      <c r="AW16" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX16" s="38" t="s">
+      <c r="AX16" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY16" s="38" t="s">
+      <c r="AY16" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ16" s="38" t="s">
+      <c r="AZ16" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA16" s="38" t="s">
+      <c r="BA16" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB16" s="38" t="s">
+      <c r="BB16" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC16" s="38" t="s">
+      <c r="BC16" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD16" s="38" t="s">
@@ -9191,46 +9205,46 @@
       <c r="AO17" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="AP17" s="34" t="s">
+      <c r="AP17" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="AQ17" s="34" t="s">
+      <c r="AQ17" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="AR17" s="34" t="s">
+      <c r="AR17" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="AS17" s="34" t="s">
+      <c r="AS17" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="AT17" s="34" t="s">
+      <c r="AT17" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="AU17" s="34" t="s">
+      <c r="AU17" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="AV17" s="34" t="s">
+      <c r="AV17" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="AW17" s="34" t="s">
+      <c r="AW17" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="AX17" s="34" t="s">
+      <c r="AX17" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="AY17" s="34" t="s">
+      <c r="AY17" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="AZ17" s="34" t="s">
+      <c r="AZ17" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="BA17" s="34" t="s">
+      <c r="BA17" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="BB17" s="34" t="s">
+      <c r="BB17" s="49" t="s">
         <v>573</v>
       </c>
-      <c r="BC17" s="34" t="s">
+      <c r="BC17" s="49" t="s">
         <v>574</v>
       </c>
       <c r="BD17" s="34" t="s">
@@ -9460,46 +9474,46 @@
       <c r="AO18" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="AP18" s="5" t="s">
+      <c r="AP18" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="AQ18" s="5" t="s">
+      <c r="AQ18" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AR18" s="5" t="s">
+      <c r="AR18" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="AS18" s="5" t="s">
+      <c r="AS18" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AT18" s="5" t="s">
+      <c r="AT18" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AU18" s="5" t="s">
+      <c r="AU18" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AV18" s="5" t="s">
+      <c r="AV18" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="AW18" s="5" t="s">
+      <c r="AW18" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="AX18" s="5" t="s">
+      <c r="AX18" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="AY18" s="5" t="s">
+      <c r="AY18" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="AZ18" s="5" t="s">
+      <c r="AZ18" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="BA18" s="5" t="s">
+      <c r="BA18" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="BB18" s="5" t="s">
+      <c r="BB18" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="BC18" s="5" t="s">
+      <c r="BC18" s="46" t="s">
         <v>574</v>
       </c>
       <c r="BD18" s="5" t="s">
@@ -9729,46 +9743,46 @@
       <c r="AO19" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="AP19" s="5" t="s">
+      <c r="AP19" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="AQ19" s="5" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="AR19" s="5" t="s">
+      <c r="AR19" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="AS19" s="5" t="s">
+      <c r="AS19" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AT19" s="5" t="s">
+      <c r="AT19" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="AU19" s="5" t="s">
+      <c r="AU19" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AV19" s="5" t="s">
+      <c r="AV19" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="AW19" s="5" t="s">
+      <c r="AW19" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="AX19" s="5" t="s">
+      <c r="AX19" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="AY19" s="5" t="s">
+      <c r="AY19" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="AZ19" s="5" t="s">
+      <c r="AZ19" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="BA19" s="5" t="s">
+      <c r="BA19" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BB19" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BC19" s="46" t="s">
         <v>574</v>
       </c>
       <c r="BD19" s="5" t="s">
@@ -9998,46 +10012,46 @@
       <c r="AO20" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="AP20" s="29" t="s">
+      <c r="AP20" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="AQ20" s="29" t="s">
+      <c r="AQ20" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="AR20" s="29" t="s">
+      <c r="AR20" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="AS20" s="29" t="s">
+      <c r="AS20" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="AT20" s="29" t="s">
+      <c r="AT20" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="AU20" s="29" t="s">
+      <c r="AU20" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="AV20" s="29" t="s">
+      <c r="AV20" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="AW20" s="29" t="s">
+      <c r="AW20" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="AX20" s="29" t="s">
+      <c r="AX20" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="AY20" s="29" t="s">
+      <c r="AY20" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="AZ20" s="29" t="s">
+      <c r="AZ20" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="BA20" s="29" t="s">
+      <c r="BA20" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="BB20" s="29" t="s">
+      <c r="BB20" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="BC20" s="29" t="s">
+      <c r="BC20" s="46" t="s">
         <v>592</v>
       </c>
       <c r="BD20" s="29" t="s">
@@ -10267,46 +10281,46 @@
       <c r="AO21" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AP21" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="AQ21" s="2" t="s">
+      <c r="AQ21" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="AR21" s="2" t="s">
+      <c r="AR21" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AS21" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="AT21" s="2" t="s">
+      <c r="AT21" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="AU21" s="2" t="s">
+      <c r="AU21" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="AV21" s="2" t="s">
+      <c r="AV21" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="AW21" s="2" t="s">
+      <c r="AW21" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="AX21" s="2" t="s">
+      <c r="AX21" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="AY21" s="2" t="s">
+      <c r="AY21" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="AZ21" s="2" t="s">
+      <c r="AZ21" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="BA21" s="2" t="s">
+      <c r="BA21" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="BB21" s="2" t="s">
+      <c r="BB21" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="BC21" s="2" t="s">
+      <c r="BC21" s="46" t="s">
         <v>592</v>
       </c>
       <c r="BD21" s="2" t="s">
@@ -10536,46 +10550,46 @@
       <c r="AO22" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="AP22" s="2" t="s">
+      <c r="AP22" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="AQ22" s="2" t="s">
+      <c r="AQ22" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="AR22" s="2" t="s">
+      <c r="AR22" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="AS22" s="2" t="s">
+      <c r="AS22" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="AT22" s="2" t="s">
+      <c r="AT22" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="AU22" s="2" t="s">
+      <c r="AU22" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="AV22" s="2" t="s">
+      <c r="AV22" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="AW22" s="2" t="s">
+      <c r="AW22" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="AX22" s="2" t="s">
+      <c r="AX22" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="AY22" s="2" t="s">
+      <c r="AY22" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="AZ22" s="2" t="s">
+      <c r="AZ22" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="BA22" s="2" t="s">
+      <c r="BA22" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="BB22" s="2" t="s">
+      <c r="BB22" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="BC22" s="2" t="s">
+      <c r="BC22" s="46" t="s">
         <v>592</v>
       </c>
       <c r="BD22" s="2" t="s">
@@ -10805,46 +10819,46 @@
       <c r="AO23" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AP23" s="5" t="s">
+      <c r="AP23" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ23" s="5" t="s">
+      <c r="AQ23" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR23" s="5" t="s">
+      <c r="AR23" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS23" s="5" t="s">
+      <c r="AS23" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT23" s="5" t="s">
+      <c r="AT23" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU23" s="5" t="s">
+      <c r="AU23" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV23" s="5" t="s">
+      <c r="AV23" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW23" s="5" t="s">
+      <c r="AW23" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX23" s="5" t="s">
+      <c r="AX23" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY23" s="5" t="s">
+      <c r="AY23" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ23" s="5" t="s">
+      <c r="AZ23" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA23" s="5" t="s">
+      <c r="BA23" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB23" s="5" t="s">
+      <c r="BB23" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC23" s="5" t="s">
+      <c r="BC23" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD23" s="5" t="s">
@@ -11074,46 +11088,46 @@
       <c r="AO24" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AP24" s="5" t="s">
+      <c r="AP24" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ24" s="5" t="s">
+      <c r="AQ24" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR24" s="5" t="s">
+      <c r="AR24" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS24" s="5" t="s">
+      <c r="AS24" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT24" s="5" t="s">
+      <c r="AT24" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU24" s="5" t="s">
+      <c r="AU24" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV24" s="5" t="s">
+      <c r="AV24" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW24" s="5" t="s">
+      <c r="AW24" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX24" s="5" t="s">
+      <c r="AX24" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY24" s="5" t="s">
+      <c r="AY24" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ24" s="5" t="s">
+      <c r="AZ24" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA24" s="5" t="s">
+      <c r="BA24" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB24" s="5" t="s">
+      <c r="BB24" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC24" s="5" t="s">
+      <c r="BC24" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD24" s="5" t="s">
@@ -11343,46 +11357,46 @@
       <c r="AO25" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AP25" s="5" t="s">
+      <c r="AP25" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ25" s="5" t="s">
+      <c r="AQ25" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR25" s="5" t="s">
+      <c r="AR25" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS25" s="5" t="s">
+      <c r="AS25" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT25" s="5" t="s">
+      <c r="AT25" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU25" s="5" t="s">
+      <c r="AU25" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV25" s="5" t="s">
+      <c r="AV25" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW25" s="5" t="s">
+      <c r="AW25" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX25" s="5" t="s">
+      <c r="AX25" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY25" s="5" t="s">
+      <c r="AY25" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ25" s="5" t="s">
+      <c r="AZ25" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA25" s="5" t="s">
+      <c r="BA25" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB25" s="5" t="s">
+      <c r="BB25" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC25" s="5" t="s">
+      <c r="BC25" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD25" s="5" t="s">
@@ -11612,46 +11626,46 @@
       <c r="AO26" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="AP26" s="2" t="s">
+      <c r="AP26" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="AQ26" s="2" t="s">
+      <c r="AQ26" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="AR26" s="2" t="s">
+      <c r="AR26" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="AS26" s="2" t="s">
+      <c r="AS26" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="AT26" s="2" t="s">
+      <c r="AT26" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="AU26" s="2" t="s">
+      <c r="AU26" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="AV26" s="2" t="s">
+      <c r="AV26" s="46" t="s">
         <v>620</v>
       </c>
-      <c r="AW26" s="2" t="s">
+      <c r="AW26" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="AX26" s="2" t="s">
+      <c r="AX26" s="46" t="s">
         <v>622</v>
       </c>
-      <c r="AY26" s="2" t="s">
+      <c r="AY26" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="AZ26" s="2" t="s">
+      <c r="AZ26" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="BA26" s="2" t="s">
+      <c r="BA26" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="BB26" s="2" t="s">
+      <c r="BB26" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="BC26" s="2" t="s">
+      <c r="BC26" s="46" t="s">
         <v>627</v>
       </c>
       <c r="BD26" s="2" t="s">
@@ -11881,46 +11895,46 @@
       <c r="AO27" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="AP27" s="38" t="s">
+      <c r="AP27" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="AQ27" s="38" t="s">
+      <c r="AQ27" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="AR27" s="38" t="s">
+      <c r="AR27" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="AS27" s="38" t="s">
+      <c r="AS27" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="AT27" s="38" t="s">
+      <c r="AT27" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="AU27" s="38" t="s">
+      <c r="AU27" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="AV27" s="38" t="s">
+      <c r="AV27" s="46" t="s">
         <v>620</v>
       </c>
-      <c r="AW27" s="38" t="s">
+      <c r="AW27" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="AX27" s="38" t="s">
+      <c r="AX27" s="46" t="s">
         <v>622</v>
       </c>
-      <c r="AY27" s="38" t="s">
+      <c r="AY27" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="AZ27" s="38" t="s">
+      <c r="AZ27" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="BA27" s="38" t="s">
+      <c r="BA27" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="BB27" s="38" t="s">
+      <c r="BB27" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="BC27" s="38" t="s">
+      <c r="BC27" s="46" t="s">
         <v>627</v>
       </c>
       <c r="BD27" s="38" t="s">
@@ -12150,46 +12164,46 @@
       <c r="AO28" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="AP28" s="2" t="s">
+      <c r="AP28" s="46" t="s">
         <v>614</v>
       </c>
-      <c r="AQ28" s="2" t="s">
+      <c r="AQ28" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="AR28" s="2" t="s">
+      <c r="AR28" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="AS28" s="2" t="s">
+      <c r="AS28" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="AT28" s="2" t="s">
+      <c r="AT28" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="AU28" s="2" t="s">
+      <c r="AU28" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="AV28" s="2" t="s">
+      <c r="AV28" s="46" t="s">
         <v>620</v>
       </c>
-      <c r="AW28" s="2" t="s">
+      <c r="AW28" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="AX28" s="2" t="s">
+      <c r="AX28" s="46" t="s">
         <v>622</v>
       </c>
-      <c r="AY28" s="2" t="s">
+      <c r="AY28" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="AZ28" s="2" t="s">
+      <c r="AZ28" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="BA28" s="2" t="s">
+      <c r="BA28" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="BB28" s="31" t="s">
+      <c r="BB28" s="48" t="s">
         <v>626</v>
       </c>
-      <c r="BC28" s="2" t="s">
+      <c r="BC28" s="46" t="s">
         <v>627</v>
       </c>
       <c r="BD28" s="2" t="s">
@@ -12419,46 +12433,46 @@
       <c r="AO29" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AP29" s="5" t="s">
+      <c r="AP29" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AQ29" s="5" t="s">
+      <c r="AQ29" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="AR29" s="5" t="s">
+      <c r="AR29" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="AS29" s="5" t="s">
+      <c r="AS29" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="AT29" s="5" t="s">
+      <c r="AT29" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="AU29" s="5" t="s">
+      <c r="AU29" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="AV29" s="5" t="s">
+      <c r="AV29" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="AW29" s="5" t="s">
+      <c r="AW29" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="AX29" s="5" t="s">
+      <c r="AX29" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="AY29" s="5" t="s">
+      <c r="AY29" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="AZ29" s="5" t="s">
+      <c r="AZ29" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="BA29" s="5" t="s">
+      <c r="BA29" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="BB29" s="5" t="s">
+      <c r="BB29" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="BC29" s="5" t="s">
+      <c r="BC29" s="46" t="s">
         <v>641</v>
       </c>
       <c r="BD29" s="5" t="s">
@@ -12688,46 +12702,46 @@
       <c r="AO30" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AP30" s="5" t="s">
+      <c r="AP30" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AQ30" s="5" t="s">
+      <c r="AQ30" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="AR30" s="5" t="s">
+      <c r="AR30" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="AS30" s="5" t="s">
+      <c r="AS30" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="AT30" s="5" t="s">
+      <c r="AT30" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="AU30" s="5" t="s">
+      <c r="AU30" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="AV30" s="5" t="s">
+      <c r="AV30" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="AW30" s="5" t="s">
+      <c r="AW30" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="AX30" s="5" t="s">
+      <c r="AX30" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="AY30" s="5" t="s">
+      <c r="AY30" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="AZ30" s="5" t="s">
+      <c r="AZ30" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="BA30" s="5" t="s">
+      <c r="BA30" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="BB30" s="5" t="s">
+      <c r="BB30" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="BC30" s="5" t="s">
+      <c r="BC30" s="46" t="s">
         <v>641</v>
       </c>
       <c r="BD30" s="5" t="s">
@@ -12957,46 +12971,46 @@
       <c r="AO31" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="AP31" s="38" t="s">
+      <c r="AP31" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="AQ31" s="38" t="s">
+      <c r="AQ31" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="AR31" s="38" t="s">
+      <c r="AR31" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="AS31" s="38" t="s">
+      <c r="AS31" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="AT31" s="38" t="s">
+      <c r="AT31" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="AU31" s="38" t="s">
+      <c r="AU31" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="AV31" s="38" t="s">
+      <c r="AV31" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="AW31" s="38" t="s">
+      <c r="AW31" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="AX31" s="38" t="s">
+      <c r="AX31" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="AY31" s="38" t="s">
+      <c r="AY31" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="AZ31" s="38" t="s">
+      <c r="AZ31" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="BA31" s="38" t="s">
+      <c r="BA31" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="BB31" s="38" t="s">
+      <c r="BB31" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="BC31" s="38" t="s">
+      <c r="BC31" s="46" t="s">
         <v>641</v>
       </c>
       <c r="BD31" s="38" t="s">
@@ -13226,46 +13240,46 @@
       <c r="AO32" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AP32" s="2" t="s">
+      <c r="AP32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ32" s="2" t="s">
+      <c r="AQ32" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR32" s="2" t="s">
+      <c r="AR32" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS32" s="2" t="s">
+      <c r="AS32" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT32" s="2" t="s">
+      <c r="AT32" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU32" s="2" t="s">
+      <c r="AU32" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV32" s="2" t="s">
+      <c r="AV32" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW32" s="2" t="s">
+      <c r="AW32" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX32" s="2" t="s">
+      <c r="AX32" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY32" s="2" t="s">
+      <c r="AY32" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ32" s="2" t="s">
+      <c r="AZ32" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA32" s="2" t="s">
+      <c r="BA32" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB32" s="2" t="s">
+      <c r="BB32" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC32" s="2" t="s">
+      <c r="BC32" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD32" s="2" t="s">
@@ -13495,46 +13509,46 @@
       <c r="AO33" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="AP33" s="2" t="s">
+      <c r="AP33" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ33" s="2" t="s">
+      <c r="AQ33" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR33" s="2" t="s">
+      <c r="AR33" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS33" s="2" t="s">
+      <c r="AS33" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT33" s="2" t="s">
+      <c r="AT33" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU33" s="2" t="s">
+      <c r="AU33" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV33" s="2" t="s">
+      <c r="AV33" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW33" s="2" t="s">
+      <c r="AW33" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX33" s="2" t="s">
+      <c r="AX33" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY33" s="2" t="s">
+      <c r="AY33" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ33" s="2" t="s">
+      <c r="AZ33" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA33" s="2" t="s">
+      <c r="BA33" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB33" s="2" t="s">
+      <c r="BB33" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC33" s="2" t="s">
+      <c r="BC33" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD33" s="2" t="s">
@@ -13764,46 +13778,46 @@
       <c r="AO34" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AP34" s="2" t="s">
+      <c r="AP34" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AQ34" s="2" t="s">
+      <c r="AQ34" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="AR34" s="2" t="s">
+      <c r="AR34" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AS34" s="2" t="s">
+      <c r="AS34" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="AT34" s="2" t="s">
+      <c r="AT34" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AU34" s="2" t="s">
+      <c r="AU34" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="AV34" s="2" t="s">
+      <c r="AV34" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="AW34" s="2" t="s">
+      <c r="AW34" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="AX34" s="2" t="s">
+      <c r="AX34" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="AY34" s="2" t="s">
+      <c r="AY34" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="AZ34" s="2" t="s">
+      <c r="AZ34" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="BA34" s="2" t="s">
+      <c r="BA34" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="BB34" s="2" t="s">
+      <c r="BB34" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="BC34" s="2" t="s">
+      <c r="BC34" s="46" t="s">
         <v>607</v>
       </c>
       <c r="BD34" s="2" t="s">
@@ -14033,46 +14047,46 @@
       <c r="AO35" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AP35" s="5" t="s">
+      <c r="AP35" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ35" s="5" t="s">
+      <c r="AQ35" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR35" s="5" t="s">
+      <c r="AR35" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AS35" s="5" t="s">
+      <c r="AS35" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT35" s="5" t="s">
+      <c r="AT35" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU35" s="5" t="s">
+      <c r="AU35" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV35" s="5" t="s">
+      <c r="AV35" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW35" s="5" t="s">
+      <c r="AW35" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX35" s="5" t="s">
+      <c r="AX35" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY35" s="5" t="s">
+      <c r="AY35" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ35" s="5" t="s">
+      <c r="AZ35" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA35" s="5" t="s">
+      <c r="BA35" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB35" s="5" t="s">
+      <c r="BB35" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC35" s="5" t="s">
+      <c r="BC35" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD35" s="5" t="s">
@@ -14302,46 +14316,46 @@
       <c r="AO36" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AP36" s="5" t="s">
+      <c r="AP36" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ36" s="5" t="s">
+      <c r="AQ36" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR36" s="5" t="s">
+      <c r="AR36" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AS36" s="5" t="s">
+      <c r="AS36" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT36" s="5" t="s">
+      <c r="AT36" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU36" s="5" t="s">
+      <c r="AU36" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV36" s="5" t="s">
+      <c r="AV36" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW36" s="5" t="s">
+      <c r="AW36" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX36" s="5" t="s">
+      <c r="AX36" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY36" s="5" t="s">
+      <c r="AY36" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ36" s="5" t="s">
+      <c r="AZ36" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA36" s="5" t="s">
+      <c r="BA36" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB36" s="5" t="s">
+      <c r="BB36" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC36" s="5" t="s">
+      <c r="BC36" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD36" s="5" t="s">
@@ -14571,46 +14585,46 @@
       <c r="AO37" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AP37" s="5" t="s">
+      <c r="AP37" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="AQ37" s="5" t="s">
+      <c r="AQ37" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="AR37" s="32" t="s">
+      <c r="AR37" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="AS37" s="5" t="s">
+      <c r="AS37" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="AT37" s="5" t="s">
+      <c r="AT37" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AU37" s="5" t="s">
+      <c r="AU37" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="AV37" s="5" t="s">
+      <c r="AV37" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="AW37" s="5" t="s">
+      <c r="AW37" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="AX37" s="5" t="s">
+      <c r="AX37" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AY37" s="5" t="s">
+      <c r="AY37" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="AZ37" s="5" t="s">
+      <c r="AZ37" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BA37" s="5" t="s">
+      <c r="BA37" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BB37" s="5" t="s">
+      <c r="BB37" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BC37" s="5" t="s">
+      <c r="BC37" s="46" t="s">
         <v>564</v>
       </c>
       <c r="BD37" s="5" t="s">
@@ -14766,20 +14780,20 @@
       <c r="AM38" s="16"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-      <c r="AX38" s="16"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
-      <c r="BC38" s="16"/>
+      <c r="AP38" s="50"/>
+      <c r="AQ38" s="50"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="50"/>
+      <c r="AZ38" s="50"/>
+      <c r="BA38" s="50"/>
+      <c r="BB38" s="50"/>
+      <c r="BC38" s="50"/>
       <c r="BD38" s="16"/>
       <c r="BE38" s="16"/>
       <c r="BF38" s="16"/>
@@ -14859,20 +14873,20 @@
       <c r="AM39" s="16"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="16"/>
-      <c r="AP39" s="16"/>
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="16"/>
-      <c r="AT39" s="16"/>
-      <c r="AU39" s="16"/>
-      <c r="AV39" s="16"/>
-      <c r="AW39" s="16"/>
-      <c r="AX39" s="16"/>
-      <c r="AY39" s="16"/>
-      <c r="AZ39" s="16"/>
-      <c r="BA39" s="16"/>
-      <c r="BB39" s="16"/>
-      <c r="BC39" s="16"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="50"/>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="50"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
       <c r="BD39" s="16"/>
       <c r="BE39" s="16"/>
       <c r="BF39" s="16"/>
@@ -14952,20 +14966,20 @@
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="16"/>
-      <c r="AP40" s="16"/>
-      <c r="AQ40" s="16"/>
-      <c r="AR40" s="16"/>
-      <c r="AS40" s="16"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="16"/>
-      <c r="AV40" s="16"/>
-      <c r="AW40" s="16"/>
-      <c r="AX40" s="16"/>
-      <c r="AY40" s="16"/>
-      <c r="AZ40" s="16"/>
-      <c r="BA40" s="16"/>
-      <c r="BB40" s="16"/>
-      <c r="BC40" s="16"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="50"/>
+      <c r="AX40" s="50"/>
+      <c r="AY40" s="50"/>
+      <c r="AZ40" s="50"/>
+      <c r="BA40" s="50"/>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="50"/>
       <c r="BD40" s="16"/>
       <c r="BE40" s="16"/>
       <c r="BF40" s="16"/>
@@ -15045,20 +15059,20 @@
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
       <c r="AO41" s="16"/>
-      <c r="AP41" s="16"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="16"/>
-      <c r="AS41" s="16"/>
-      <c r="AT41" s="16"/>
-      <c r="AU41" s="16"/>
-      <c r="AV41" s="16"/>
-      <c r="AW41" s="16"/>
-      <c r="AX41" s="16"/>
-      <c r="AY41" s="16"/>
-      <c r="AZ41" s="16"/>
-      <c r="BA41" s="16"/>
-      <c r="BB41" s="16"/>
-      <c r="BC41" s="16"/>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50"/>
+      <c r="AT41" s="50"/>
+      <c r="AU41" s="50"/>
+      <c r="AV41" s="50"/>
+      <c r="AW41" s="50"/>
+      <c r="AX41" s="50"/>
+      <c r="AY41" s="50"/>
+      <c r="AZ41" s="50"/>
+      <c r="BA41" s="50"/>
+      <c r="BB41" s="50"/>
+      <c r="BC41" s="50"/>
       <c r="BD41" s="16"/>
       <c r="BE41" s="16"/>
       <c r="BF41" s="16"/>
@@ -15138,20 +15152,20 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="16"/>
-      <c r="AP42" s="16"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="16"/>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="16"/>
-      <c r="AV42" s="16"/>
-      <c r="AW42" s="16"/>
-      <c r="AX42" s="16"/>
-      <c r="AY42" s="16"/>
-      <c r="AZ42" s="16"/>
-      <c r="BA42" s="16"/>
-      <c r="BB42" s="16"/>
-      <c r="BC42" s="16"/>
+      <c r="AP42" s="50"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="50"/>
+      <c r="AS42" s="50"/>
+      <c r="AT42" s="50"/>
+      <c r="AU42" s="50"/>
+      <c r="AV42" s="50"/>
+      <c r="AW42" s="50"/>
+      <c r="AX42" s="50"/>
+      <c r="AY42" s="50"/>
+      <c r="AZ42" s="50"/>
+      <c r="BA42" s="50"/>
+      <c r="BB42" s="50"/>
+      <c r="BC42" s="50"/>
       <c r="BD42" s="16"/>
       <c r="BE42" s="16"/>
       <c r="BF42" s="16"/>
